--- a/medicine/Médecine vétérinaire/Pierre_Rousselet-Blanc/Pierre_Rousselet-Blanc.xlsx
+++ b/medicine/Médecine vétérinaire/Pierre_Rousselet-Blanc/Pierre_Rousselet-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Rousselet-Blanc, né le 31 août 1938[1], est un docteur vétérinaire qui s'est consacré aux animaux de compagnie et aux médias. Il est l'auteur de nombreux ouvrages (publiés aux éditions Larousse, Hachette, Nathan etc). Il a tenu des rubriques animalières dans la presse écrite (France soir, télé loisirs, le parisien, Notre temps, etc) et à la radio (RTL, France Inter). Il a été producteur/présentateur à la télévision (La Cinq, TF1, France 3, France 5). Magazines : Mille et une pattes, Le Jardin des bêtes, et documentaires. Il est gérant de Video reportages communication (VRC). Il a exercé la médecine vétérinaire à Paris 15e. Il est aujourd'hui à la retraite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Rousselet-Blanc, né le 31 août 1938, est un docteur vétérinaire qui s'est consacré aux animaux de compagnie et aux médias. Il est l'auteur de nombreux ouvrages (publiés aux éditions Larousse, Hachette, Nathan etc). Il a tenu des rubriques animalières dans la presse écrite (France soir, télé loisirs, le parisien, Notre temps, etc) et à la radio (RTL, France Inter). Il a été producteur/présentateur à la télévision (La Cinq, TF1, France 3, France 5). Magazines : Mille et une pattes, Le Jardin des bêtes, et documentaires. Il est gérant de Video reportages communication (VRC). Il a exercé la médecine vétérinaire à Paris 15e. Il est aujourd'hui à la retraite.
 </t>
         </is>
       </c>
